--- a/biology/Médecine/Nerf_grand_pétreux/Nerf_grand_pétreux.xlsx
+++ b/biology/Médecine/Nerf_grand_pétreux/Nerf_grand_pétreux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nerf_grand_p%C3%A9treux</t>
+          <t>Nerf_grand_pétreux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf grand pétreux (appelé également le grand nerf pétreux superficiel, le nerf pétreux superficiel, la racine parasympathique du ganglion ptérygopalatin ou la racine intermédiaire du ganglion ptérygopalatin) est un nerf parasympathique appartenant à la tête. C'est une branche du nerf facial qui nait au niveau du ganglion géniculé, dans le rocher du temporal. Après un trajet endocrânien puis exocrânien, les axones parasympathiques préganglionnaires cheminant par ce nerf font synapse dans le ganglion ptérygopalatin, qui abrite les corps cellulaires des neurones post ganglionnaires parasympathiques à destinée des glandes lacrymales, des fosses nasales et du palais. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nerf_grand_p%C3%A9treux</t>
+          <t>Nerf_grand_pétreux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf grand pétreux nait au niveau du genou du nerf facial.
 Il chemine dans la partie pétreuse de l'os temporal par le canal du nerf grand pétreux, en sort sur la face endocrânienne du rocher par le hiatus du canal du nerf grand pétreux accompagné du rameau artériel pétreux de l'artère méningée moyenne pour pénétrer dans la fosse crânienne moyenne.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nerf_grand_p%C3%A9treux</t>
+          <t>Nerf_grand_pétreux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Systématisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fibres parasympathiques pré-ganglionnaires prennent naissance dans le noyau salivaire supérieur.  Elles se joignent aux fibres sensorielles somatiques générales et aux fibres sensorielles spécialisées pour former le nerf intermédiaire.
 Le nerf intermédiaire pénètre le rocher du temporal au niveau du méat acoustique interne et rejoint la racine motrice du nerf facial au niveau du ganglion géniculé. Les fibres parasympathiques pré-ganglionnaires quittent à ce moment le ganglion géniculé sans relais synaptique et en sortent en tant que nerf grand pétreux.
